--- a/documents/画面遷移図_チーム名.xlsx
+++ b/documents/画面遷移図_チーム名.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-2\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B8DE03-2787-4E84-A328-82DFE609E4A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B56D946-CCD2-42FE-9EDA-F604481B8BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1725" yWindow="2430" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面遷移図" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -88,12 +88,44 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>（テキストエリアと回答ボタンを設置）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ナビゲーションに「検索」「登録」「履歴」「ログアウト」を設置</t>
+    <rPh sb="10" eb="12">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>セッチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ロゴからも検索画面に戻れる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※質問更新画面/回答更新画面で更新内容を記入</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※質問「回答」の登録は「質問内容表示画面」からできる</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,6 +145,14 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -175,7 +215,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -192,6 +232,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3729,10 +3772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3783,6 +3826,34 @@
         <v>6</v>
       </c>
     </row>
+    <row r="27" spans="2:2" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B27" s="6"/>
+    </row>
+    <row r="28" spans="2:2" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B28" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B29" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B30" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B31" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B32" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
